--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020203510101010100</v>
+        <v>020203510101010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -524,7 +524,7 @@
         <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020203510101010101</v>
+        <v>0202035101010101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,90 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>434_绿豆_Hypericum green_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>527_白豆_Hypericum white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>433_红豆_Hypericum red_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +668,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202035101010101010</v>
+        <v>0202035101010101010101022220105100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -607,6 +607,9 @@
       <c r="C21" t="str">
         <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -668,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202035101010101010101022220105100</v>
+        <v>02020351010101010101010222201051010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>4</v>
+      </c>
+      <c r="C28" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>396_米花 白_rice flower white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +751,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020351010101010101010222201051010</v>
+        <v>020203510101010101010102222010510106355410301500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -690,6 +690,9 @@
       <c r="C31" t="str">
         <v>396_米花 白_rice flower white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -751,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020203510101010101010102222010510106355410301500</v>
+        <v>020203510101010101010102222010510106355410301501</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,12 +691,68 @@
         <v>396_米花 白_rice flower white_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>465_羽衣甘蓝_Brassica_Brassica oleracea var. acephala DC._1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L38"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -754,7 +810,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020203510101010101010102222010510106355410301501</v>
+        <v>02020351010101010101010222201051010635541030150101535100151015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,20 +441,22 @@
         <v>TotalPrice</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F2" t="str">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" t="str">
-        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+    <row r="3" xml:space="preserve">
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F3" t="str">
         <v>20</v>
@@ -462,23 +464,23 @@
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
         <v>10</v>
@@ -486,273 +488,44 @@
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>579_腊梅红_wax red_undefined_1bunch</v>
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>2</v>
-      </c>
       <c r="C9" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
       </c>
       <c r="F10" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F11" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F12" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F13" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
-        <v>434_绿豆_Hypericum green_undefined_1bunch</v>
-      </c>
-      <c r="F14" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>527_白豆_Hypericum white_undefined_1bunch</v>
-      </c>
-      <c r="F15" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>433_红豆_Hypericum red_undefined_1bunch</v>
-      </c>
-      <c r="F16" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v>548_白星花_tweedia white_undefined_1bunch</v>
-      </c>
-      <c r="F17" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="C18" t="str" xml:space="preserve">
-        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
-white_undefined_1bunch</v>
-      </c>
-      <c r="F18" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F19" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>3</v>
-      </c>
-      <c r="C20" t="str">
-        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F20" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F21" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F22" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F23" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F24" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F25" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F26" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v>300_白星_White Gypso_ gypsophila_1kg</v>
-      </c>
-      <c r="F27" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>4</v>
-      </c>
-      <c r="C28" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
-      </c>
-      <c r="F28" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="str">
-        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
-      </c>
-      <c r="F29" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F30" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v>396_米花 白_rice flower white_undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
-      </c>
-      <c r="F32" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
-      </c>
-      <c r="F33" t="str">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>389_金合欢_mimosa_undefined_1bunch</v>
-      </c>
-      <c r="F34" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F35" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v>465_羽衣甘蓝_Brassica_Brassica oleracea var. acephala DC._1bunch</v>
-      </c>
-      <c r="F37" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>558_油画小菊_Helenium_undefined_1bunch</v>
-      </c>
-      <c r="F38" t="str">
-        <v>15</v>
+        <v>310_彩星 黄_Tinted Gypso yellow_undefined_0.5kg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -810,7 +583,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020351010101010101010222201051010635541030150101535100151015</v>
+        <v>0202020151015153050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -522,6 +522,9 @@
       <c r="C11" t="str">
         <v>310_彩星 黄_Tinted Gypso yellow_undefined_0.5kg</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -583,7 +586,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020151015153050</v>
+        <v>0202020151015153055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,9 +526,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>311_彩星 橙_Tinted Gypso orange_undefined_0.5kg</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>6</v>
+      </c>
+      <c r="C15" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -586,7 +666,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020151015153055</v>
+        <v>0202020151015153055510515512151510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -605,6 +605,9 @@
       <c r="A21" t="str">
         <v>7</v>
       </c>
+      <c r="C21" t="str">
+        <v>384_奶油向日葵_sunflower cream_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -608,6 +608,9 @@
       <c r="C21" t="str">
         <v>384_奶油向日葵_sunflower cream_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -669,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020151015153055510515512151510</v>
+        <v>0202020151015153055510515512151511</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,12 +609,92 @@
         <v>384_奶油向日葵_sunflower cream_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>566_金盏花_Marigolds_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8</v>
+      </c>
+      <c r="C28" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -672,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020151015153055510515512151511</v>
+        <v>0202020151015153055510515512151511515151552015151050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -691,6 +691,9 @@
       <c r="A31" t="str">
         <v>9</v>
       </c>
+      <c r="C31" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -694,6 +694,9 @@
       <c r="C31" t="str">
         <v>572_乒乓菊白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -755,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020151015153055510515512151511515151552015151050</v>
+        <v>0202020151015153055510515512151511515151552015151051</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -695,7 +695,7 @@
         <v>572_乒乓菊白_undefined_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020151015153055510515512151511515151552015151051</v>
+        <v>02020201510151530555105155121515115151515520151510510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,9 +698,86 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -758,7 +835,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020201510151530555105155121515115151515520151510510</v>
+        <v>020202015101515305551051551215151151515155201515105101515105055220</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -774,6 +774,9 @@
       <c r="C41" t="str">
         <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -835,7 +838,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020202015101515305551051551215151151515155201515105101515105055220</v>
+        <v>020202015101515305551051551215151151515155201515105101515105055225</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -731,6 +731,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="str">
+        <v>10</v>
+      </c>
       <c r="C36" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
@@ -778,9 +781,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L42"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -838,7 +849,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020202015101515305551051551215151151515155201515105101515105055225</v>
+        <v>02020201510151530555105155121515115151515520151510510151510505522510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-16.xlsx
@@ -851,6 +851,9 @@
       <c r="G2" t="str">
         <v>02020201510151530555105155121515115151515520151510510151510505522510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
